--- a/02Analy/arch-arm-boot-compressed-head.S_register_value.xlsx
+++ b/02Analy/arch-arm-boot-compressed-head.S_register_value.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>r0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +145,30 @@
   </si>
   <si>
     <t>program counter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpsr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arch ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atags pointer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpsr &amp; MODE_MASK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__boot_cpu_mode_offset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,19 +538,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
     <col min="3" max="3" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.25" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -534,8 +560,14 @@
         <v>16</v>
       </c>
       <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -543,8 +575,14 @@
         <v>17</v>
       </c>
       <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -552,8 +590,11 @@
         <v>18</v>
       </c>
       <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -562,7 +603,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -570,8 +611,14 @@
         <v>20</v>
       </c>
       <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -579,8 +626,11 @@
         <v>21</v>
       </c>
       <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -589,7 +639,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -597,8 +647,11 @@
         <v>23</v>
       </c>
       <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -606,8 +659,11 @@
         <v>24</v>
       </c>
       <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -617,8 +673,11 @@
       <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -629,7 +688,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -640,7 +699,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -649,7 +708,7 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -660,7 +719,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -671,7 +730,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>

--- a/02Analy/arch-arm-boot-compressed-head.S_register_value.xlsx
+++ b/02Analy/arch-arm-boot-compressed-head.S_register_value.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>r0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,6 +169,40 @@
   </si>
   <si>
     <t>0x17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpsr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSR_I_BIT | PSR_F_BIT | SVC_MODE</t>
+  </si>
+  <si>
+    <t>cpsr_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xXX008000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restart:주소값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_MMFR0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CB_BITS | 0x02</t>
+  </si>
+  <si>
+    <t>0xXX008000 - 0x4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xXX004000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,21 +572,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A10" sqref="A10"/>
+      <selection pane="topRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -566,8 +603,11 @@
       <c r="E1" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -582,7 +622,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -594,7 +634,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -602,8 +642,17 @@
         <v>19</v>
       </c>
       <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D4" s="3">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -617,8 +666,11 @@
       <c r="E5" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -630,7 +682,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -638,8 +690,11 @@
         <v>22</v>
       </c>
       <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D7" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -651,7 +706,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -663,7 +718,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -677,7 +732,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -688,7 +743,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -698,8 +753,11 @@
       <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D12" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -707,8 +765,11 @@
         <v>28</v>
       </c>
       <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D13" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -719,7 +780,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -729,8 +790,11 @@
       <c r="C15" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D15" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -739,6 +803,14 @@
       </c>
       <c r="C16" s="1" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/02Analy/arch-arm-boot-compressed-head.S_register_value.xlsx
+++ b/02Analy/arch-arm-boot-compressed-head.S_register_value.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>r0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,26 +183,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>restart:주소값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_MMFR0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CB_BITS | 0x02</t>
+  </si>
+  <si>
+    <t>0xXX008000 - 0x4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xXX004000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'mov r0, #0'명령어주소값</t>
+  </si>
+  <si>
+    <t>start of RAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start of RAM + 256MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xC12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0xXX008000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>restart:주소값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID_MMFR0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CB_BITS | 0x02</t>
-  </si>
-  <si>
-    <t>0xXX008000 - 0x4000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xXX004000</t>
+  </si>
+  <si>
+    <t>0xXX008000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,12 +590,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="E7" sqref="E7"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -585,11 +603,11 @@
     <col min="1" max="2" width="9" style="3"/>
     <col min="3" max="3" width="18.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -606,8 +624,14 @@
       <c r="F1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -621,8 +645,11 @@
       <c r="E2" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -633,8 +660,11 @@
       <c r="D3" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E3" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -646,13 +676,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
         <v>51</v>
       </c>
-      <c r="F4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -667,10 +697,10 @@
         <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -682,7 +712,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -691,10 +721,10 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -706,7 +736,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -718,7 +748,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -731,8 +761,11 @@
       <c r="D10" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E10" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -742,8 +775,11 @@
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D11" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -754,10 +790,10 @@
         <v>34</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -766,10 +802,10 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -780,7 +816,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -791,10 +827,13 @@
         <v>36</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
